--- a/resultados/aleatoriedad-inicio/aleatoriedad-localvisita-reg.xlsx
+++ b/resultados/aleatoriedad-inicio/aleatoriedad-localvisita-reg.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="845">
   <si>
     <t>Indicador</t>
   </si>
@@ -218,1081 +218,1081 @@
     <t>Frac. Fácil LV h5 p7 c5</t>
   </si>
   <si>
-    <t>0.199 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.144 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.478 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.341 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.049 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.064 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.032 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.002 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.415 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.469 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.642 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.856 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.616 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.521 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.407 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.466 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.457 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.761 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.511 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.383 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.653 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.764 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.652 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.224 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.173 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.499 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.507 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.193 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.583 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.519 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.642 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.229 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.444 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.509 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.661 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.333 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.686 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.692 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.736 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.699 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.895 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.86 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.773 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.783 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.822 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.93 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.556 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.303 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.621 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.726 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.743 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.842 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.831 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.985 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.401 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.449 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.334 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.409 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.587 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.328 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.366 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.1 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.056 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.049 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.051 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.099 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.306 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.252 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.721 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.546 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.339 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.384 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.295 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.388 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.48 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.346 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.402 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.333 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.674 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.513 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.369 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.202 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.279 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.024 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.824 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.721 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.778 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.575 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.857 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.829 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.646 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.289 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.096 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.034 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.08 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.401 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.306 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.106 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.374 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.814 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.391 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.259 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.12 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.668 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.385 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.313 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.248 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.501 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.177 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.118 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.186 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.541 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.176 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.178 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.124 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.196 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.149 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.169 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.222 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.321 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.213 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.306 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.271 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.329 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.19 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.341 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.328 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.883 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.773 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.787 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.267 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.557 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.43 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.664 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.185 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.91 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.904 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.934 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.441 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.744 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.495 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.473 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.032 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.907 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.656 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.508 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.018 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.67 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.478 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.595 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.08 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.669 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.414 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.376 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.089 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.937 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.753 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.663 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.433 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.858 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.699 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.749 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.579 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.617 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.245 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.372 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.233 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.972 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.871 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.814 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.599 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.99 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.899 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.807 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.412 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.479 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.315 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.417 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.774 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.843 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.716 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.594 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.733 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.768 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.601 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.599 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.941 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.995 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.982 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.927 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.945 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.286 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.202 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.124 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.287 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.621 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.324 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.497 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.571 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.255 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.437 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.572 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.524 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.855 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.899 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.803 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.871 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.975 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.967 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.959 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.054 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.099 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.3 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.387 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.382 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.585 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.54 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.359 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.194 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.417 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.197 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.14 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.356 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.791 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.901 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.905 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.356 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.459 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.679 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.566 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.267 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.582 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.742 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.668 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.396 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.727 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.658 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.622 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.279 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.507 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.378 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.624 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.495 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.445 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.642 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.362 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.3 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.499 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.37 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.782 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.404 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.511 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.761 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.974 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.694 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.746 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.664 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.512 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.179 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.266 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.234 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.633 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.617 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.743 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.567 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.946 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.87 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.958 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.813 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.637 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.136 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.097 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.378 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.697 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.703 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.785 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.746 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.972 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.992 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.995 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.977 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.746 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.556 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.472 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.526 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.854 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.508 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.719 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.929 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.785 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.909 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.764 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.931 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.283 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.276 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.41 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.525 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.06 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.063 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.049 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.043 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.19 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.167 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.44 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.542 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.972 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.799 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.701 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.388 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.159 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.063 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.272 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.155 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.656 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.547 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.871 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.595 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.114 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.042 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.158 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.02 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.764 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.884 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.86 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.54 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.925 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.963 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.965 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.72 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.129 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.057 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.048 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.103 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.533 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.767 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.615 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.585 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.923 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.93 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.817 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.719 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.705 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.485 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.711 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.745 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.822 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.62 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.714 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.913 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.752 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.834 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.69 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.639 (N = 474)</t>
+    <t>0.031 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.021 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.343 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.326 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.316 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.361 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.492 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.186 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.637 (N = 129)</t>
+  </si>
+  <si>
+    <t>0.579 (N = 129)</t>
+  </si>
+  <si>
+    <t>0.742 (N = 129)</t>
+  </si>
+  <si>
+    <t>0.173 (N = 129)</t>
+  </si>
+  <si>
+    <t>0.452 (N = 196)</t>
+  </si>
+  <si>
+    <t>0.327 (N = 196)</t>
+  </si>
+  <si>
+    <t>0.55 (N = 196)</t>
+  </si>
+  <si>
+    <t>0.436 (N = 196)</t>
+  </si>
+  <si>
+    <t>0.153 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.234 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.631 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.496 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.419 (N = 149)</t>
+  </si>
+  <si>
+    <t>0.59 (N = 149)</t>
+  </si>
+  <si>
+    <t>0.548 (N = 149)</t>
+  </si>
+  <si>
+    <t>0.458 (N = 149)</t>
+  </si>
+  <si>
+    <t>0.26 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.261 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.74 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.76 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.171 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.172 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.239 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.252 (N = 174)</t>
+  </si>
+  <si>
+    <t>0.199 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.193 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.09 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.089 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.216 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.353 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.405 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.414 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.118 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.289 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.214 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.232 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.452 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.317 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.162 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.339 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.344 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.162 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.442 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.513 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.295 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.502 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.344 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.78 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.42 (N = 153)</t>
+  </si>
+  <si>
+    <t>0.358 (N = 153)</t>
+  </si>
+  <si>
+    <t>0.068 (N = 153)</t>
+  </si>
+  <si>
+    <t>0.417 (N = 153)</t>
+  </si>
+  <si>
+    <t>0.628 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.524 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.347 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.326 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.295 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.141 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.189 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.036 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.12 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.107 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.137 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.017 (N = 154)</t>
+  </si>
+  <si>
+    <t>0.454 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.167 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.069 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.151 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.18 (N = 188)</t>
+  </si>
+  <si>
+    <t>0.143 (N = 188)</t>
+  </si>
+  <si>
+    <t>0.163 (N = 188)</t>
+  </si>
+  <si>
+    <t>0.157 (N = 188)</t>
+  </si>
+  <si>
+    <t>0.63 (N = 166)</t>
+  </si>
+  <si>
+    <t>0.338 (N = 166)</t>
+  </si>
+  <si>
+    <t>0.504 (N = 166)</t>
+  </si>
+  <si>
+    <t>0.349 (N = 166)</t>
+  </si>
+  <si>
+    <t>0.292 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.05 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.076 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.014 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.765 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.508 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.559 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.289 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.828 (N = 176)</t>
+  </si>
+  <si>
+    <t>0.805 (N = 176)</t>
+  </si>
+  <si>
+    <t>0.461 (N = 176)</t>
+  </si>
+  <si>
+    <t>0.141 (N = 176)</t>
+  </si>
+  <si>
+    <t>0.365 (N = 230)</t>
+  </si>
+  <si>
+    <t>0.27 (N = 230)</t>
+  </si>
+  <si>
+    <t>0.138 (N = 230)</t>
+  </si>
+  <si>
+    <t>0.291 (N = 230)</t>
+  </si>
+  <si>
+    <t>0.412 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.296 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.09 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.435 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.543 (N = 184)</t>
+  </si>
+  <si>
+    <t>0.425 (N = 184)</t>
+  </si>
+  <si>
+    <t>0.177 (N = 184)</t>
+  </si>
+  <si>
+    <t>0.044 (N = 184)</t>
+  </si>
+  <si>
+    <t>0.4 (N = 227)</t>
+  </si>
+  <si>
+    <t>0.202 (N = 227)</t>
+  </si>
+  <si>
+    <t>0.186 (N = 227)</t>
+  </si>
+  <si>
+    <t>0.188 (N = 227)</t>
+  </si>
+  <si>
+    <t>0.385 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.095 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.074 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.185 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.574 (N = 183)</t>
+  </si>
+  <si>
+    <t>0.368 (N = 183)</t>
+  </si>
+  <si>
+    <t>0.224 (N = 183)</t>
+  </si>
+  <si>
+    <t>0.336 (N = 183)</t>
+  </si>
+  <si>
+    <t>0.112 (N = 130)</t>
+  </si>
+  <si>
+    <t>0.03 (N = 130)</t>
+  </si>
+  <si>
+    <t>0.164 (N = 130)</t>
+  </si>
+  <si>
+    <t>0.077 (N = 130)</t>
+  </si>
+  <si>
+    <t>0.281 (N = 111)</t>
+  </si>
+  <si>
+    <t>0.023 (N = 111)</t>
+  </si>
+  <si>
+    <t>0.299 (N = 111)</t>
+  </si>
+  <si>
+    <t>0.133 (N = 111)</t>
+  </si>
+  <si>
+    <t>0.355 (N = 97)</t>
+  </si>
+  <si>
+    <t>0.029 (N = 97)</t>
+  </si>
+  <si>
+    <t>0.452 (N = 97)</t>
+  </si>
+  <si>
+    <t>0.507 (N = 97)</t>
+  </si>
+  <si>
+    <t>0.457 (N = 138)</t>
+  </si>
+  <si>
+    <t>0.203 (N = 138)</t>
+  </si>
+  <si>
+    <t>0.489 (N = 138)</t>
+  </si>
+  <si>
+    <t>0.025 (N = 138)</t>
+  </si>
+  <si>
+    <t>0.195 (N = 121)</t>
+  </si>
+  <si>
+    <t>0.089 (N = 121)</t>
+  </si>
+  <si>
+    <t>0.536 (N = 121)</t>
+  </si>
+  <si>
+    <t>0.028 (N = 121)</t>
+  </si>
+  <si>
+    <t>0.679 (N = 108)</t>
+  </si>
+  <si>
+    <t>0.446 (N = 108)</t>
+  </si>
+  <si>
+    <t>0.766 (N = 108)</t>
+  </si>
+  <si>
+    <t>0.115 (N = 108)</t>
+  </si>
+  <si>
+    <t>0.488 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.162 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.006 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.71 (N = 124)</t>
+  </si>
+  <si>
+    <t>0.518 (N = 124)</t>
+  </si>
+  <si>
+    <t>0.573 (N = 124)</t>
+  </si>
+  <si>
+    <t>0.008 (N = 124)</t>
+  </si>
+  <si>
+    <t>0.884 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.481 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.803 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.123 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.282 (N = 144)</t>
+  </si>
+  <si>
+    <t>0.191 (N = 144)</t>
+  </si>
+  <si>
+    <t>0.267 (N = 144)</t>
+  </si>
+  <si>
+    <t>0.021 (N = 144)</t>
+  </si>
+  <si>
+    <t>0.176 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.057 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.173 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.019 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.666 (N = 114)</t>
+  </si>
+  <si>
+    <t>0.318 (N = 114)</t>
+  </si>
+  <si>
+    <t>0.73 (N = 114)</t>
+  </si>
+  <si>
+    <t>0.174 (N = 114)</t>
+  </si>
+  <si>
+    <t>0.208 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.066 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.165 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.015 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.278 (N = 132)</t>
+  </si>
+  <si>
+    <t>0.114 (N = 132)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 132)</t>
+  </si>
+  <si>
+    <t>0.009 (N = 132)</t>
+  </si>
+  <si>
+    <t>0.182 (N = 116)</t>
+  </si>
+  <si>
+    <t>0.058 (N = 116)</t>
+  </si>
+  <si>
+    <t>0.109 (N = 116)</t>
+  </si>
+  <si>
+    <t>0.003 (N = 116)</t>
+  </si>
+  <si>
+    <t>0.112 (N = 333)</t>
+  </si>
+  <si>
+    <t>0.545 (N = 333)</t>
+  </si>
+  <si>
+    <t>0.449 (N = 333)</t>
+  </si>
+  <si>
+    <t>0.697 (N = 333)</t>
+  </si>
+  <si>
+    <t>0.442 (N = 291)</t>
+  </si>
+  <si>
+    <t>0.602 (N = 291)</t>
+  </si>
+  <si>
+    <t>0.493 (N = 291)</t>
+  </si>
+  <si>
+    <t>0.582 (N = 291)</t>
+  </si>
+  <si>
+    <t>0.233 (N = 254)</t>
+  </si>
+  <si>
+    <t>0.447 (N = 254)</t>
+  </si>
+  <si>
+    <t>0.476 (N = 254)</t>
+  </si>
+  <si>
+    <t>0.751 (N = 254)</t>
+  </si>
+  <si>
+    <t>0.805 (N = 368)</t>
+  </si>
+  <si>
+    <t>0.98 (N = 368)</t>
+  </si>
+  <si>
+    <t>0.947 (N = 368)</t>
+  </si>
+  <si>
+    <t>0.957 (N = 368)</t>
+  </si>
+  <si>
+    <t>0.152 (N = 326)</t>
+  </si>
+  <si>
+    <t>0.332 (N = 326)</t>
+  </si>
+  <si>
+    <t>0.367 (N = 326)</t>
+  </si>
+  <si>
+    <t>0.393 (N = 326)</t>
+  </si>
+  <si>
+    <t>0.267 (N = 290)</t>
+  </si>
+  <si>
+    <t>0.365 (N = 290)</t>
+  </si>
+  <si>
+    <t>0.594 (N = 290)</t>
+  </si>
+  <si>
+    <t>0.694 (N = 290)</t>
+  </si>
+  <si>
+    <t>0.163 (N = 376)</t>
+  </si>
+  <si>
+    <t>0.655 (N = 376)</t>
+  </si>
+  <si>
+    <t>0.608 (N = 376)</t>
+  </si>
+  <si>
+    <t>0.612 (N = 376)</t>
+  </si>
+  <si>
+    <t>0.631 (N = 336)</t>
+  </si>
+  <si>
+    <t>0.87 (N = 336)</t>
+  </si>
+  <si>
+    <t>0.778 (N = 336)</t>
+  </si>
+  <si>
+    <t>0.665 (N = 336)</t>
+  </si>
+  <si>
+    <t>0.608 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.901 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.757 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.829 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.06 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.27 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.403 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.513 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.214 (N = 337)</t>
+  </si>
+  <si>
+    <t>0.553 (N = 337)</t>
+  </si>
+  <si>
+    <t>0.501 (N = 337)</t>
+  </si>
+  <si>
+    <t>0.324 (N = 337)</t>
+  </si>
+  <si>
+    <t>0.162 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.649 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.584 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.437 (N = 302)</t>
+  </si>
+  <si>
+    <t>0.284 (N = 382)</t>
+  </si>
+  <si>
+    <t>0.791 (N = 382)</t>
+  </si>
+  <si>
+    <t>0.878 (N = 382)</t>
+  </si>
+  <si>
+    <t>0.818 (N = 382)</t>
+  </si>
+  <si>
+    <t>0.489 (N = 342)</t>
+  </si>
+  <si>
+    <t>0.55 (N = 342)</t>
+  </si>
+  <si>
+    <t>0.756 (N = 342)</t>
+  </si>
+  <si>
+    <t>0.605 (N = 342)</t>
+  </si>
+  <si>
+    <t>0.273 (N = 305)</t>
+  </si>
+  <si>
+    <t>0.676 (N = 305)</t>
+  </si>
+  <si>
+    <t>0.812 (N = 305)</t>
+  </si>
+  <si>
+    <t>0.625 (N = 305)</t>
+  </si>
+  <si>
+    <t>0.728 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.791 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.723 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.743 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.569 (N = 165)</t>
+  </si>
+  <si>
+    <t>0.638 (N = 165)</t>
+  </si>
+  <si>
+    <t>0.706 (N = 165)</t>
+  </si>
+  <si>
+    <t>0.974 (N = 165)</t>
+  </si>
+  <si>
+    <t>0.578 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.419 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.705 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.953 (N = 148)</t>
+  </si>
+  <si>
+    <t>0.107 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.184 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.348 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.362 (N = 211)</t>
+  </si>
+  <si>
+    <t>0.143 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.07 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.214 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.45 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.446 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.197 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.384 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.38 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.408 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.213 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.361 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.372 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.55 (N = 189)</t>
+  </si>
+  <si>
+    <t>0.447 (N = 189)</t>
+  </si>
+  <si>
+    <t>0.664 (N = 189)</t>
+  </si>
+  <si>
+    <t>0.615 (N = 189)</t>
+  </si>
+  <si>
+    <t>0.399 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.321 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.519 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.552 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.496 (N = 220)</t>
+  </si>
+  <si>
+    <t>0.087 (N = 220)</t>
+  </si>
+  <si>
+    <t>0.091 (N = 220)</t>
+  </si>
+  <si>
+    <t>0.387 (N = 220)</t>
+  </si>
+  <si>
+    <t>0.258 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.202 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.354 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.426 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.242 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.152 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.481 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.648 (N = 169)</t>
+  </si>
+  <si>
+    <t>0.287 (N = 222)</t>
+  </si>
+  <si>
+    <t>0.325 (N = 222)</t>
+  </si>
+  <si>
+    <t>0.387 (N = 222)</t>
+  </si>
+  <si>
+    <t>0.494 (N = 222)</t>
+  </si>
+  <si>
+    <t>0.625 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.479 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.875 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.935 (N = 195)</t>
+  </si>
+  <si>
+    <t>0.5 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.354 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.423 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.739 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.067 (N = 1023)</t>
+  </si>
+  <si>
+    <t>0.096 (N = 1023)</t>
+  </si>
+  <si>
+    <t>0.35 (N = 1023)</t>
+  </si>
+  <si>
+    <t>0.373 (N = 1023)</t>
+  </si>
+  <si>
+    <t>0.184 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.092 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.419 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.221 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.165 (N = 782)</t>
+  </si>
+  <si>
+    <t>0.058 (N = 782)</t>
+  </si>
+  <si>
+    <t>0.444 (N = 782)</t>
+  </si>
+  <si>
+    <t>0.292 (N = 782)</t>
+  </si>
+  <si>
+    <t>0.27 (N = 1124)</t>
+  </si>
+  <si>
+    <t>0.153 (N = 1124)</t>
+  </si>
+  <si>
+    <t>0.311 (N = 1124)</t>
+  </si>
+  <si>
+    <t>0.084 (N = 1124)</t>
+  </si>
+  <si>
+    <t>0.004 (N = 994)</t>
+  </si>
+  <si>
+    <t>0.003 (N = 994)</t>
+  </si>
+  <si>
+    <t>0.155 (N = 994)</t>
+  </si>
+  <si>
+    <t>0.041 (N = 994)</t>
+  </si>
+  <si>
+    <t>0.26 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.109 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.512 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.232 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.091 (N = 1151)</t>
+  </si>
+  <si>
+    <t>0.032 (N = 1151)</t>
+  </si>
+  <si>
+    <t>0.174 (N = 1151)</t>
+  </si>
+  <si>
+    <t>0.492 (N = 1018)</t>
+  </si>
+  <si>
+    <t>0.389 (N = 1018)</t>
+  </si>
+  <si>
+    <t>0.551 (N = 1018)</t>
+  </si>
+  <si>
+    <t>0.129 (N = 1018)</t>
+  </si>
+  <si>
+    <t>0.66 (N = 913)</t>
+  </si>
+  <si>
+    <t>0.63 (N = 913)</t>
+  </si>
+  <si>
+    <t>0.462 (N = 913)</t>
+  </si>
+  <si>
+    <t>0.175 (N = 913)</t>
+  </si>
+  <si>
+    <t>0.057 (N = 1166)</t>
+  </si>
+  <si>
+    <t>0.039 (N = 1166)</t>
+  </si>
+  <si>
+    <t>0.043 (N = 1166)</t>
+  </si>
+  <si>
+    <t>0.058 (N = 1166)</t>
+  </si>
+  <si>
+    <t>0.033 (N = 1043)</t>
+  </si>
+  <si>
+    <t>0.081 (N = 1043)</t>
+  </si>
+  <si>
+    <t>0.095 (N = 1043)</t>
+  </si>
+  <si>
+    <t>0.083 (N = 1043)</t>
+  </si>
+  <si>
+    <t>0.305 (N = 925)</t>
+  </si>
+  <si>
+    <t>0.308 (N = 925)</t>
+  </si>
+  <si>
+    <t>0.387 (N = 925)</t>
+  </si>
+  <si>
+    <t>0.213 (N = 925)</t>
+  </si>
+  <si>
+    <t>0.17 (N = 1176)</t>
+  </si>
+  <si>
+    <t>0.12 (N = 1176)</t>
+  </si>
+  <si>
+    <t>0.366 (N = 1176)</t>
+  </si>
+  <si>
+    <t>0.253 (N = 1176)</t>
+  </si>
+  <si>
+    <t>0.329 (N = 1048)</t>
+  </si>
+  <si>
+    <t>0.174 (N = 1048)</t>
+  </si>
+  <si>
+    <t>0.446 (N = 1048)</t>
+  </si>
+  <si>
+    <t>0.493 (N = 1048)</t>
+  </si>
+  <si>
+    <t>0.267 (N = 932)</t>
+  </si>
+  <si>
+    <t>0.216 (N = 932)</t>
+  </si>
+  <si>
+    <t>0.165 (N = 932)</t>
+  </si>
+  <si>
+    <t>0.2 (N = 932)</t>
   </si>
   <si>
     <t>Frac. Difícil LV h1 p4 c3</t>
@@ -1475,1069 +1475,1081 @@
     <t>Frac. Difícil LV h5 p7 c5</t>
   </si>
   <si>
-    <t>0.275 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.682 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.938 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.842 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.848 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.72 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.898 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.861 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.801 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.876 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.998 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.991 (N = 51)</t>
-  </si>
-  <si>
-    <t>0.804 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.234 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.394 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.26 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.008 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.097 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.243 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.406 (N = 93)</t>
-  </si>
-  <si>
-    <t>0.49 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.967 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.921 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.688 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.922 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.962 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.968 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.992 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.688 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.792 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.718 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.662 (N = 98)</t>
-  </si>
-  <si>
-    <t>0.116 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.075 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.089 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.172 (N = 64)</t>
-  </si>
-  <si>
-    <t>0.378 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.125 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.553 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.101 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.173 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.468 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.522 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.425 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.549 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.801 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.928 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.808 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.446 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.184 (N = 141)</t>
-  </si>
-  <si>
-    <t>0.779 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.528 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.197 (N = 101)</t>
-  </si>
-  <si>
-    <t>0.932 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.771 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.843 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.75 (N = 66)</t>
-  </si>
-  <si>
-    <t>0.564 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.187 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.286 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.206 (N = 140)</t>
-  </si>
-  <si>
-    <t>0.266 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.332 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.414 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.318 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.8 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.674 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.585 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.384 (N = 62)</t>
-  </si>
-  <si>
-    <t>0.762 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.346 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.56 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.707 (N = 158)</t>
-  </si>
-  <si>
-    <t>0.825 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.705 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.439 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.384 (N = 115)</t>
-  </si>
-  <si>
-    <t>0.129 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.047 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.086 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.081 (N = 76)</t>
-  </si>
-  <si>
-    <t>0.611 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.275 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.656 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.661 (N = 171)</t>
-  </si>
-  <si>
-    <t>0.673 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.235 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.11 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.12 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.594 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.286 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.031 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.042 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.055 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.004 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.018 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.073 (N = 180)</t>
-  </si>
-  <si>
-    <t>0.066 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.026 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.005 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.015 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.071 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.195 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.128 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.041 (N = 95)</t>
-  </si>
-  <si>
-    <t>0.286 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.006 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.067 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.031 (N = 177)</t>
-  </si>
-  <si>
-    <t>0.106 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.028 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.046 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.006 (N = 136)</t>
-  </si>
-  <si>
-    <t>0.038 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.149 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.225 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.061 (N = 102)</t>
-  </si>
-  <si>
-    <t>0.558 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.626 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.687 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.56 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.414 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.233 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.273 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.263 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.316 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.068 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.16 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.259 (N = 40)</t>
-  </si>
-  <si>
-    <t>0.516 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.647 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.687 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.808 (N = 99)</t>
-  </si>
-  <si>
-    <t>0.841 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.856 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.941 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.814 (N = 71)</t>
-  </si>
-  <si>
-    <t>0.751 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.825 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.839 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.428 (N = 48)</t>
-  </si>
-  <si>
-    <t>0.906 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.873 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.714 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.534 (N = 105)</t>
-  </si>
-  <si>
-    <t>0.654 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.61 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.474 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.12 (N = 75)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.809 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.92 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.924 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.645 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.684 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.689 (N = 106)</t>
-  </si>
-  <si>
-    <t>0.939 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.388 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.316 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.224 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.77 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.438 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.172 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.507 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.837 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.488 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.339 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.47 (N = 109)</t>
-  </si>
-  <si>
-    <t>0.623 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.314 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.554 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.959 (N = 83)</t>
-  </si>
-  <si>
-    <t>0.876 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.554 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.31 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.902 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.398 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.112 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.276 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.184 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.355 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.532 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.01 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.021 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.016 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.141 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.848 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.553 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.388 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.586 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.821 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.413 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.14 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.501 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.459 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.472 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.352 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.205 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.613 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.195 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.395 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.453 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.176 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.237 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.533 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.147 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.491 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.339 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.36 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.867 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.549 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.622 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.916 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.362 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.475 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.378 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.565 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.201 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.502 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.514 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.674 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.285 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.135 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.253 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.334 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.961 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.879 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.892 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.814 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.104 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.046 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.307 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.837 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.472 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.706 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.526 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.379 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.73 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.909 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.345 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.325 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.583 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.488 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.179 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.028 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.121 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.547 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.11 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.729 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.852 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.582 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.136 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.545 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.761 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.182 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.192 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.396 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.278 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.057 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.021 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.22 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.555 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.444 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.03 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.238 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.405 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.092 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.052 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.405 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.578 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.075 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.011 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.228 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.413 (N = 122)</t>
-  </si>
-  <si>
-    <t>0.732 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.148 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.91 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.953 (N = 80)</t>
-  </si>
-  <si>
-    <t>0.079 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.122 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.411 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.354 (N = 169)</t>
-  </si>
-  <si>
-    <t>0.154 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.01 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.058 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.457 (N = 124)</t>
-  </si>
-  <si>
-    <t>0.901 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.191 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.778 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.755 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.43 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.135 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.457 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.477 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.162 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.081 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.401 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.438 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.156 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.08 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.242 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.287 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.781 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.16 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.282 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.387 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.65 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.302 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.422 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.47 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.458 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.414 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.478 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.119 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.789 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.46 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.622 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.664 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.376 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.072 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.107 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.122 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.322 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.142 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.06 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.018 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.288 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.015 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.069 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.254 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.191 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.008 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.048 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.32 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.247 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.323 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.415 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.045 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.138 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.063 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.685 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.129 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.248 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.27 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.506 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.114 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.577 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.707 (N = 474)</t>
+    <t>0.415 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.871 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.899 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.968 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.906 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.525 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.616 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.605 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.878 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.817 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.867 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.935 (N = 170)</t>
+  </si>
+  <si>
+    <t>0.842 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.573 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.646 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.138 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.587 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.645 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.822 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.754 (N = 187)</t>
+  </si>
+  <si>
+    <t>0.527 (N = 171)</t>
+  </si>
+  <si>
+    <t>0.819 (N = 171)</t>
+  </si>
+  <si>
+    <t>0.595 (N = 171)</t>
+  </si>
+  <si>
+    <t>0.686 (N = 171)</t>
+  </si>
+  <si>
+    <t>0.969 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.825 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.759 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.548 (N = 206)</t>
+  </si>
+  <si>
+    <t>0.876 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.741 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.644 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.389 (N = 191)</t>
+  </si>
+  <si>
+    <t>0.893 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.46 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.643 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.578 (N = 175)</t>
+  </si>
+  <si>
+    <t>0.742 (N = 212)</t>
+  </si>
+  <si>
+    <t>0.606 (N = 212)</t>
+  </si>
+  <si>
+    <t>0.487 (N = 212)</t>
+  </si>
+  <si>
+    <t>0.287 (N = 212)</t>
+  </si>
+  <si>
+    <t>0.677 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.481 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.217 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.173 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.51 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.225 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.182 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.052 (N = 172)</t>
+  </si>
+  <si>
+    <t>0.894 (N = 213)</t>
+  </si>
+  <si>
+    <t>0.816 (N = 213)</t>
+  </si>
+  <si>
+    <t>0.611 (N = 213)</t>
+  </si>
+  <si>
+    <t>0.424 (N = 213)</t>
+  </si>
+  <si>
+    <t>0.883 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.577 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.331 (N = 194)</t>
+  </si>
+  <si>
+    <t>0.794 (N = 178)</t>
+  </si>
+  <si>
+    <t>0.653 (N = 178)</t>
+  </si>
+  <si>
+    <t>0.429 (N = 178)</t>
+  </si>
+  <si>
+    <t>0.382 (N = 178)</t>
+  </si>
+  <si>
+    <t>0.683 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.32 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.158 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.434 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.034 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.07 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.13 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.145 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.446 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.493 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.401 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.28 (N = 197)</t>
+  </si>
+  <si>
+    <t>0.656 (N = 246)</t>
+  </si>
+  <si>
+    <t>0.239 (N = 246)</t>
+  </si>
+  <si>
+    <t>0.372 (N = 246)</t>
+  </si>
+  <si>
+    <t>0.62 (N = 246)</t>
+  </si>
+  <si>
+    <t>0.563 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.572 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.397 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.678 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.59 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.857 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.839 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.753 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.198 (N = 249)</t>
+  </si>
+  <si>
+    <t>0.069 (N = 249)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 249)</t>
+  </si>
+  <si>
+    <t>0.314 (N = 249)</t>
+  </si>
+  <si>
+    <t>0.938 (N = 228)</t>
+  </si>
+  <si>
+    <t>0.95 (N = 228)</t>
+  </si>
+  <si>
+    <t>0.891 (N = 228)</t>
+  </si>
+  <si>
+    <t>0.801 (N = 228)</t>
+  </si>
+  <si>
+    <t>0.929 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.777 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.765 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.596 (N = 204)</t>
+  </si>
+  <si>
+    <t>0.171 (N = 250)</t>
+  </si>
+  <si>
+    <t>0.079 (N = 250)</t>
+  </si>
+  <si>
+    <t>0.2 (N = 250)</t>
+  </si>
+  <si>
+    <t>0.293 (N = 250)</t>
+  </si>
+  <si>
+    <t>0.626 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.667 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.428 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.318 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.504 (N = 209)</t>
+  </si>
+  <si>
+    <t>0.355 (N = 209)</t>
+  </si>
+  <si>
+    <t>0.4 (N = 209)</t>
+  </si>
+  <si>
+    <t>0.162 (N = 209)</t>
+  </si>
+  <si>
+    <t>0.593 (N = 247)</t>
+  </si>
+  <si>
+    <t>0.289 (N = 247)</t>
+  </si>
+  <si>
+    <t>0.585 (N = 247)</t>
+  </si>
+  <si>
+    <t>0.17 (N = 247)</t>
+  </si>
+  <si>
+    <t>0.382 (N = 229)</t>
+  </si>
+  <si>
+    <t>0.246 (N = 229)</t>
+  </si>
+  <si>
+    <t>0.197 (N = 229)</t>
+  </si>
+  <si>
+    <t>0.05 (N = 229)</t>
+  </si>
+  <si>
+    <t>0.437 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.306 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.238 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.111 (N = 215)</t>
+  </si>
+  <si>
+    <t>0.492 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.446 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.619 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.801 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.649 (N = 145)</t>
+  </si>
+  <si>
+    <t>0.455 (N = 145)</t>
+  </si>
+  <si>
+    <t>0.35 (N = 145)</t>
+  </si>
+  <si>
+    <t>0.606 (N = 145)</t>
+  </si>
+  <si>
+    <t>0.531 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.242 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.308 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.347 (N = 131)</t>
+  </si>
+  <si>
+    <t>0.45 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.58 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.53 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.761 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.646 (N = 147)</t>
+  </si>
+  <si>
+    <t>0.833 (N = 147)</t>
+  </si>
+  <si>
+    <t>0.818 (N = 147)</t>
+  </si>
+  <si>
+    <t>0.733 (N = 147)</t>
+  </si>
+  <si>
+    <t>0.591 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.702 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.709 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.771 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.695 (N = 163)</t>
+  </si>
+  <si>
+    <t>0.529 (N = 163)</t>
+  </si>
+  <si>
+    <t>0.118 (N = 163)</t>
+  </si>
+  <si>
+    <t>0.091 (N = 163)</t>
+  </si>
+  <si>
+    <t>0.675 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.466 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.112 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.138 (N = 150)</t>
+  </si>
+  <si>
+    <t>0.869 (N = 141)</t>
+  </si>
+  <si>
+    <t>0.79 (N = 141)</t>
+  </si>
+  <si>
+    <t>0.142 (N = 141)</t>
+  </si>
+  <si>
+    <t>0.325 (N = 141)</t>
+  </si>
+  <si>
+    <t>0.817 (N = 162)</t>
+  </si>
+  <si>
+    <t>0.356 (N = 162)</t>
+  </si>
+  <si>
+    <t>0.342 (N = 162)</t>
+  </si>
+  <si>
+    <t>0.1 (N = 162)</t>
+  </si>
+  <si>
+    <t>0.935 (N = 152)</t>
+  </si>
+  <si>
+    <t>0.448 (N = 152)</t>
+  </si>
+  <si>
+    <t>0.082 (N = 152)</t>
+  </si>
+  <si>
+    <t>0.069 (N = 152)</t>
+  </si>
+  <si>
+    <t>0.743 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.517 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.179 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.519 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.728 (N = 161)</t>
+  </si>
+  <si>
+    <t>0.208 (N = 161)</t>
+  </si>
+  <si>
+    <t>0.227 (N = 161)</t>
+  </si>
+  <si>
+    <t>0.122 (N = 161)</t>
+  </si>
+  <si>
+    <t>0.596 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.071 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.187 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.431 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.367 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.151 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.128 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.404 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.944 (N = 401)</t>
+  </si>
+  <si>
+    <t>0.844 (N = 401)</t>
+  </si>
+  <si>
+    <t>0.547 (N = 401)</t>
+  </si>
+  <si>
+    <t>0.384 (N = 401)</t>
+  </si>
+  <si>
+    <t>0.864 (N = 370)</t>
+  </si>
+  <si>
+    <t>0.432 (N = 370)</t>
+  </si>
+  <si>
+    <t>0.421 (N = 370)</t>
+  </si>
+  <si>
+    <t>0.469 (N = 370)</t>
+  </si>
+  <si>
+    <t>0.823 (N = 338)</t>
+  </si>
+  <si>
+    <t>0.321 (N = 338)</t>
+  </si>
+  <si>
+    <t>0.196 (N = 338)</t>
+  </si>
+  <si>
+    <t>0.233 (N = 338)</t>
+  </si>
+  <si>
+    <t>0.938 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.547 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.352 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.185 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.886 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.064 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.086 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.142 (N = 375)</t>
+  </si>
+  <si>
+    <t>0.523 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.025 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.137 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.047 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.974 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.291 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.233 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.133 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.87 (N = 384)</t>
+  </si>
+  <si>
+    <t>0.075 (N = 384)</t>
+  </si>
+  <si>
+    <t>0.154 (N = 384)</t>
+  </si>
+  <si>
+    <t>0.176 (N = 384)</t>
+  </si>
+  <si>
+    <t>0.367 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.055 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.369 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 350)</t>
+  </si>
+  <si>
+    <t>0.856 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.137 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.096 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.119 (N = 408)</t>
+  </si>
+  <si>
+    <t>0.814 (N = 386)</t>
+  </si>
+  <si>
+    <t>0.093 (N = 386)</t>
+  </si>
+  <si>
+    <t>0.101 (N = 386)</t>
+  </si>
+  <si>
+    <t>0.126 (N = 386)</t>
+  </si>
+  <si>
+    <t>0.737 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.108 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.347 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.418 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.941 (N = 410)</t>
+  </si>
+  <si>
+    <t>0.562 (N = 410)</t>
+  </si>
+  <si>
+    <t>0.505 (N = 410)</t>
+  </si>
+  <si>
+    <t>0.44 (N = 410)</t>
+  </si>
+  <si>
+    <t>0.898 (N = 387)</t>
+  </si>
+  <si>
+    <t>0.135 (N = 387)</t>
+  </si>
+  <si>
+    <t>0.143 (N = 387)</t>
+  </si>
+  <si>
+    <t>0.068 (N = 387)</t>
+  </si>
+  <si>
+    <t>0.43 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.048 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.163 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.153 (N = 354)</t>
+  </si>
+  <si>
+    <t>0.389 (N = 241)</t>
+  </si>
+  <si>
+    <t>0.027 (N = 241)</t>
+  </si>
+  <si>
+    <t>0.072 (N = 241)</t>
+  </si>
+  <si>
+    <t>0.028 (N = 241)</t>
+  </si>
+  <si>
+    <t>0.812 (N = 219)</t>
+  </si>
+  <si>
+    <t>0.274 (N = 219)</t>
+  </si>
+  <si>
+    <t>0.763 (N = 219)</t>
+  </si>
+  <si>
+    <t>0.419 (N = 219)</t>
+  </si>
+  <si>
+    <t>0.586 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.185 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.377 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.419 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.348 (N = 238)</t>
+  </si>
+  <si>
+    <t>0.027 (N = 238)</t>
+  </si>
+  <si>
+    <t>0.121 (N = 238)</t>
+  </si>
+  <si>
+    <t>0.067 (N = 238)</t>
+  </si>
+  <si>
+    <t>0.535 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.181 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.386 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.652 (N = 221)</t>
+  </si>
+  <si>
+    <t>0.56 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.355 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.101 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.275 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.349 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.134 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.255 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.264 (N = 242)</t>
+  </si>
+  <si>
+    <t>0.566 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.043 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.114 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.664 (N = 207)</t>
+  </si>
+  <si>
+    <t>0.064 (N = 207)</t>
+  </si>
+  <si>
+    <t>0.057 (N = 207)</t>
+  </si>
+  <si>
+    <t>0.127 (N = 207)</t>
+  </si>
+  <si>
+    <t>0.251 (N = 243)</t>
+  </si>
+  <si>
+    <t>0.021 (N = 243)</t>
+  </si>
+  <si>
+    <t>0.441 (N = 243)</t>
+  </si>
+  <si>
+    <t>0.478 (N = 243)</t>
+  </si>
+  <si>
+    <t>0.322 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.069 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.39 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.333 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.627 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.151 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.28 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.445 (N = 208)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 244)</t>
+  </si>
+  <si>
+    <t>0.127 (N = 244)</t>
+  </si>
+  <si>
+    <t>0.626 (N = 244)</t>
+  </si>
+  <si>
+    <t>0.688 (N = 244)</t>
+  </si>
+  <si>
+    <t>0.326 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.039 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.146 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.399 (N = 226)</t>
+  </si>
+  <si>
+    <t>0.759 (N = 210)</t>
+  </si>
+  <si>
+    <t>0.268 (N = 210)</t>
+  </si>
+  <si>
+    <t>0.277 (N = 210)</t>
+  </si>
+  <si>
+    <t>0.321 (N = 210)</t>
+  </si>
+  <si>
+    <t>0.862 (N = 1245)</t>
+  </si>
+  <si>
+    <t>0.488 (N = 1245)</t>
+  </si>
+  <si>
+    <t>0.431 (N = 1245)</t>
+  </si>
+  <si>
+    <t>0.602 (N = 1245)</t>
+  </si>
+  <si>
+    <t>0.733 (N = 1139)</t>
+  </si>
+  <si>
+    <t>0.13 (N = 1139)</t>
+  </si>
+  <si>
+    <t>0.314 (N = 1139)</t>
+  </si>
+  <si>
+    <t>0.348 (N = 1139)</t>
+  </si>
+  <si>
+    <t>0.866 (N = 1039)</t>
+  </si>
+  <si>
+    <t>0.283 (N = 1039)</t>
+  </si>
+  <si>
+    <t>0.304 (N = 1039)</t>
+  </si>
+  <si>
+    <t>0.313 (N = 1039)</t>
+  </si>
+  <si>
+    <t>0.93 (N = 1259)</t>
+  </si>
+  <si>
+    <t>0.259 (N = 1259)</t>
+  </si>
+  <si>
+    <t>0.316 (N = 1259)</t>
+  </si>
+  <si>
+    <t>0.183 (N = 1259)</t>
+  </si>
+  <si>
+    <t>0.909 (N = 1156)</t>
+  </si>
+  <si>
+    <t>0.369 (N = 1156)</t>
+  </si>
+  <si>
+    <t>0.451 (N = 1156)</t>
+  </si>
+  <si>
+    <t>0.655 (N = 1156)</t>
+  </si>
+  <si>
+    <t>0.748 (N = 1062)</t>
+  </si>
+  <si>
+    <t>0.422 (N = 1062)</t>
+  </si>
+  <si>
+    <t>0.4 (N = 1062)</t>
+  </si>
+  <si>
+    <t>0.336 (N = 1062)</t>
+  </si>
+  <si>
+    <t>0.949 (N = 1268)</t>
+  </si>
+  <si>
+    <t>0.226 (N = 1268)</t>
+  </si>
+  <si>
+    <t>0.196 (N = 1268)</t>
+  </si>
+  <si>
+    <t>0.094 (N = 1268)</t>
+  </si>
+  <si>
+    <t>0.987 (N = 1179)</t>
+  </si>
+  <si>
+    <t>0.347 (N = 1179)</t>
+  </si>
+  <si>
+    <t>0.182 (N = 1179)</t>
+  </si>
+  <si>
+    <t>0.153 (N = 1179)</t>
+  </si>
+  <si>
+    <t>0.967 (N = 1077)</t>
+  </si>
+  <si>
+    <t>0.245 (N = 1077)</t>
+  </si>
+  <si>
+    <t>0.258 (N = 1077)</t>
+  </si>
+  <si>
+    <t>0.253 (N = 1077)</t>
+  </si>
+  <si>
+    <t>0.725 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.028 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.122 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.074 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.925 (N = 1191)</t>
+  </si>
+  <si>
+    <t>0.192 (N = 1191)</t>
+  </si>
+  <si>
+    <t>0.073 (N = 1191)</t>
+  </si>
+  <si>
+    <t>0.039 (N = 1191)</t>
+  </si>
+  <si>
+    <t>0.863 (N = 1086)</t>
+  </si>
+  <si>
+    <t>0.094 (N = 1086)</t>
+  </si>
+  <si>
+    <t>0.118 (N = 1086)</t>
+  </si>
+  <si>
+    <t>0.085 (N = 1086)</t>
+  </si>
+  <si>
+    <t>0.955 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.333 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.618 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.245 (N = 1275)</t>
+  </si>
+  <si>
+    <t>0.856 (N = 1187)</t>
+  </si>
+  <si>
+    <t>0.025 (N = 1187)</t>
+  </si>
+  <si>
+    <t>0.04 (N = 1187)</t>
+  </si>
+  <si>
+    <t>0.028 (N = 1187)</t>
+  </si>
+  <si>
+    <t>0.718 (N = 1099)</t>
+  </si>
+  <si>
+    <t>0.072 (N = 1099)</t>
+  </si>
+  <si>
+    <t>0.083 (N = 1099)</t>
+  </si>
+  <si>
+    <t>0.063 (N = 1099)</t>
   </si>
 </sst>
 </file>
@@ -2935,16 +2947,16 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2955,19 +2967,19 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2978,19 +2990,19 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3001,19 +3013,19 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3024,19 +3036,19 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3047,19 +3059,19 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3070,19 +3082,19 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3093,19 +3105,19 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3116,19 +3128,19 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3139,19 +3151,19 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3162,19 +3174,19 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3185,19 +3197,19 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3208,19 +3220,19 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3231,19 +3243,19 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3254,19 +3266,19 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3277,19 +3289,19 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3300,19 +3312,19 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3323,19 +3335,19 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3346,19 +3358,19 @@
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3369,19 +3381,19 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3392,19 +3404,19 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3415,19 +3427,19 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3438,19 +3450,19 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3461,19 +3473,19 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3484,19 +3496,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3507,19 +3519,19 @@
         <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3530,19 +3542,19 @@
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3553,19 +3565,19 @@
         <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3576,16 +3588,16 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G30" t="s">
         <v>394</v>
@@ -3599,16 +3611,16 @@
         <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G31" t="s">
         <v>395</v>
@@ -3622,16 +3634,16 @@
         <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G32" t="s">
         <v>396</v>
@@ -3645,16 +3657,16 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
         <v>397</v>
@@ -3668,16 +3680,16 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
         <v>398</v>
@@ -3691,16 +3703,16 @@
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
         <v>399</v>
@@ -3714,16 +3726,16 @@
         <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
         <v>400</v>
@@ -3737,16 +3749,16 @@
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
         <v>401</v>
@@ -3760,16 +3772,16 @@
         <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
         <v>402</v>
@@ -3783,16 +3795,16 @@
         <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
         <v>403</v>
@@ -3806,16 +3818,16 @@
         <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
         <v>404</v>
@@ -3829,16 +3841,16 @@
         <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
         <v>405</v>
@@ -3852,16 +3864,16 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G42" t="s">
         <v>406</v>
@@ -3875,16 +3887,16 @@
         <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G43" t="s">
         <v>407</v>
@@ -3898,16 +3910,16 @@
         <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
         <v>408</v>
@@ -3921,16 +3933,16 @@
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>409</v>
@@ -3944,16 +3956,16 @@
         <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G46" t="s">
         <v>410</v>
@@ -3967,16 +3979,16 @@
         <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
         <v>411</v>
@@ -3990,16 +4002,16 @@
         <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G48" t="s">
         <v>412</v>
@@ -4013,16 +4025,16 @@
         <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G49" t="s">
         <v>413</v>
@@ -4036,16 +4048,16 @@
         <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G50" t="s">
         <v>414</v>
@@ -4059,16 +4071,16 @@
         <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G51" t="s">
         <v>415</v>
@@ -4082,16 +4094,16 @@
         <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G52" t="s">
         <v>416</v>
@@ -4105,16 +4117,16 @@
         <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G53" t="s">
         <v>417</v>
@@ -4128,16 +4140,16 @@
         <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s">
         <v>418</v>
@@ -4151,16 +4163,16 @@
         <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
         <v>419</v>
@@ -4174,16 +4186,16 @@
         <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G56" t="s">
         <v>420</v>
@@ -4197,16 +4209,16 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F57" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G57" t="s">
         <v>421</v>
@@ -4220,16 +4232,16 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G58" t="s">
         <v>422</v>
@@ -4243,16 +4255,16 @@
         <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G59" t="s">
         <v>423</v>
@@ -4266,16 +4278,16 @@
         <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G60" t="s">
         <v>424</v>
@@ -4289,16 +4301,16 @@
         <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G61" t="s">
         <v>425</v>
@@ -4354,13 +4366,13 @@
         <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4377,13 +4389,13 @@
         <v>607</v>
       </c>
       <c r="E3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>727</v>
       </c>
       <c r="G3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4400,13 +4412,13 @@
         <v>608</v>
       </c>
       <c r="E4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F4" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G4" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4423,13 +4435,13 @@
         <v>609</v>
       </c>
       <c r="E5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F5" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G5" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4446,13 +4458,13 @@
         <v>610</v>
       </c>
       <c r="E6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F6" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4469,13 +4481,13 @@
         <v>611</v>
       </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G7" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4492,13 +4504,13 @@
         <v>612</v>
       </c>
       <c r="E8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F8" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="G8" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4515,13 +4527,13 @@
         <v>613</v>
       </c>
       <c r="E9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F9" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G9" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4538,13 +4550,13 @@
         <v>614</v>
       </c>
       <c r="E10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F10" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G10" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4561,13 +4573,13 @@
         <v>615</v>
       </c>
       <c r="E11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F11" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="G11" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4584,13 +4596,13 @@
         <v>616</v>
       </c>
       <c r="E12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F12" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G12" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4607,13 +4619,13 @@
         <v>617</v>
       </c>
       <c r="E13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F13" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G13" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4630,13 +4642,13 @@
         <v>618</v>
       </c>
       <c r="E14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F14" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G14" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4653,13 +4665,13 @@
         <v>619</v>
       </c>
       <c r="E15" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F15" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G15" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4676,13 +4688,13 @@
         <v>620</v>
       </c>
       <c r="E16" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F16" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G16" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4699,13 +4711,13 @@
         <v>621</v>
       </c>
       <c r="E17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F17" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G17" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4722,13 +4734,13 @@
         <v>622</v>
       </c>
       <c r="E18" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F18" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G18" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4745,13 +4757,13 @@
         <v>623</v>
       </c>
       <c r="E19" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F19" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G19" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4768,13 +4780,13 @@
         <v>624</v>
       </c>
       <c r="E20" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F20" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G20" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4791,13 +4803,13 @@
         <v>625</v>
       </c>
       <c r="E21" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F21" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="G21" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4814,13 +4826,13 @@
         <v>626</v>
       </c>
       <c r="E22" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F22" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4837,13 +4849,13 @@
         <v>627</v>
       </c>
       <c r="E23" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F23" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="G23" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4860,13 +4872,13 @@
         <v>628</v>
       </c>
       <c r="E24" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F24" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="G24" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4883,13 +4895,13 @@
         <v>629</v>
       </c>
       <c r="E25" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F25" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="G25" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4906,13 +4918,13 @@
         <v>630</v>
       </c>
       <c r="E26" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F26" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="G26" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4929,13 +4941,13 @@
         <v>631</v>
       </c>
       <c r="E27" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F27" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="G27" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4952,13 +4964,13 @@
         <v>632</v>
       </c>
       <c r="E28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F28" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="G28" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4975,13 +4987,13 @@
         <v>633</v>
       </c>
       <c r="E29" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F29" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="G29" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4998,13 +5010,13 @@
         <v>634</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F30" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G30" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5021,13 +5033,13 @@
         <v>635</v>
       </c>
       <c r="E31" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F31" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="G31" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5044,13 +5056,13 @@
         <v>636</v>
       </c>
       <c r="E32" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F32" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="G32" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5067,13 +5079,13 @@
         <v>637</v>
       </c>
       <c r="E33" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F33" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G33" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5090,13 +5102,13 @@
         <v>638</v>
       </c>
       <c r="E34" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F34" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G34" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5113,13 +5125,13 @@
         <v>639</v>
       </c>
       <c r="E35" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F35" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G35" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5136,13 +5148,13 @@
         <v>640</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F36" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="G36" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5156,16 +5168,16 @@
         <v>581</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>641</v>
       </c>
       <c r="E37" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F37" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="G37" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5179,16 +5191,16 @@
         <v>582</v>
       </c>
       <c r="D38" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E38" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F38" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="G38" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5202,16 +5214,16 @@
         <v>583</v>
       </c>
       <c r="D39" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E39" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F39" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G39" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5225,16 +5237,16 @@
         <v>584</v>
       </c>
       <c r="D40" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F40" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G40" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5248,16 +5260,16 @@
         <v>585</v>
       </c>
       <c r="D41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E41" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F41" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G41" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5271,16 +5283,16 @@
         <v>586</v>
       </c>
       <c r="D42" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E42" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F42" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="G42" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5294,16 +5306,16 @@
         <v>587</v>
       </c>
       <c r="D43" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E43" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F43" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="G43" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5317,16 +5329,16 @@
         <v>588</v>
       </c>
       <c r="D44" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E44" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F44" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G44" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5340,16 +5352,16 @@
         <v>589</v>
       </c>
       <c r="D45" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F45" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G45" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5363,16 +5375,16 @@
         <v>590</v>
       </c>
       <c r="D46" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E46" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F46" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G46" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5386,16 +5398,16 @@
         <v>591</v>
       </c>
       <c r="D47" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E47" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F47" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="G47" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5409,16 +5421,16 @@
         <v>592</v>
       </c>
       <c r="D48" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F48" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G48" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5432,16 +5444,16 @@
         <v>593</v>
       </c>
       <c r="D49" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E49" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F49" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G49" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5455,16 +5467,16 @@
         <v>594</v>
       </c>
       <c r="D50" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E50" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F50" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G50" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5478,16 +5490,16 @@
         <v>595</v>
       </c>
       <c r="D51" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E51" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F51" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G51" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5501,16 +5513,16 @@
         <v>596</v>
       </c>
       <c r="D52" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E52" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F52" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G52" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5524,16 +5536,16 @@
         <v>597</v>
       </c>
       <c r="D53" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E53" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F53" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G53" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5547,16 +5559,16 @@
         <v>598</v>
       </c>
       <c r="D54" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E54" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F54" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G54" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5570,16 +5582,16 @@
         <v>599</v>
       </c>
       <c r="D55" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E55" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F55" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="G55" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5593,16 +5605,16 @@
         <v>600</v>
       </c>
       <c r="D56" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E56" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F56" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G56" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5616,16 +5628,16 @@
         <v>601</v>
       </c>
       <c r="D57" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E57" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F57" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G57" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5639,16 +5651,16 @@
         <v>602</v>
       </c>
       <c r="D58" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E58" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F58" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G58" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5662,16 +5674,16 @@
         <v>603</v>
       </c>
       <c r="D59" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E59" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F59" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G59" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5685,16 +5697,16 @@
         <v>604</v>
       </c>
       <c r="D60" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E60" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F60" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="G60" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5708,16 +5720,16 @@
         <v>605</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>725</v>
       </c>
       <c r="F61" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G61" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
